--- a/fhir/CodeSystem-participant-function.xlsx
+++ b/fhir/CodeSystem-participant-function.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-participant-function.xlsx
+++ b/fhir/CodeSystem-participant-function.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-participant-function.xlsx
+++ b/fhir/CodeSystem-participant-function.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Secondary contact</t>
+  </si>
+  <si>
+    <t>Default-careteam-for-task-and-communication</t>
+  </si>
+  <si>
+    <t>Default careteam for task and communication</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -501,6 +507,20 @@
         <v>43</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fhir/CodeSystem-participant-function.xlsx
+++ b/fhir/CodeSystem-participant-function.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-participant-function.xlsx
+++ b/fhir/CodeSystem-participant-function.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-participant-function.xlsx
+++ b/fhir/CodeSystem-participant-function.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-participant-function.xlsx
+++ b/fhir/CodeSystem-participant-function.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-participant-function.xlsx
+++ b/fhir/CodeSystem-participant-function.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-participant-function.xlsx
+++ b/fhir/CodeSystem-participant-function.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
